--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1944.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1944.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21107545262037</v>
+        <v>0.4101058542728424</v>
       </c>
       <c r="B1">
-        <v>2.180237404434878</v>
+        <v>0.5166788697242737</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.7507784962654114</v>
       </c>
       <c r="D1">
-        <v>1.849584485079242</v>
+        <v>3.398271799087524</v>
       </c>
       <c r="E1">
-        <v>1.106772196672804</v>
+        <v>5.901803493499756</v>
       </c>
     </row>
   </sheetData>
